--- a/data/echoMRI/Kotz07222025.xlsx
+++ b/data/echoMRI/Kotz07222025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carosandovalcaballero/Documents/GitHub/data/data/echoMRI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AD5F97D-D066-0B4F-B445-8A1B59C78BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7EDE61-951F-274F-A2D0-5E0DD9B49B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtractedScans" sheetId="1" r:id="rId1"/>
@@ -67,16 +67,16 @@
     <t>3729</t>
   </si>
   <si>
-    <t>11:42:12 Jul 22, 2025, 32; ems</t>
-  </si>
-  <si>
-    <t>11:44:05 Jul 22, 2025, 32; ems</t>
-  </si>
-  <si>
-    <t>11:45:39 Jul 22, 2025, 31; ems</t>
-  </si>
-  <si>
-    <t>11:47:22 Jul 22, 2025, 27; ems</t>
+    <t>11:42:12 Jul 22, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>11:44:05 Jul 22, 2025; 32; ems</t>
+  </si>
+  <si>
+    <t>11:45:39 Jul 22, 2025; 31; ems</t>
+  </si>
+  <si>
+    <t>11:47:22 Jul 22, 2025; 27; ems</t>
   </si>
 </sst>
 </file>
@@ -418,12 +418,12 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="7" max="7" width="38.19921875" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
